--- a/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-Ingredient.xlsx
+++ b/r5-AGES-MedicinalProduct-main/StructureDefinition-at-emed-Ingredient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T07:26:28+00:00</t>
+    <t>2024-05-21T07:48:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2988,10 +2988,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>74</v>
